--- a/StylometryCorpus1.xlsx
+++ b/StylometryCorpus1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piete\OneDrive - KU Leuven\Documents\Postdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/code/medtrans_stylo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353A071F-4DCB-47A1-985B-340E84848CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8E9ED-C515-894C-B6FF-9B5DFB0CEB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{07629992-44ED-4A1D-9ACD-E3B15E0D7E5B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{07629992-44ED-4A1D-9ACD-E3B15E0D7E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Corpus" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Nicholas of Reggio" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Corpus!$A:$F,Corpus!$I:$I</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Corpus!$A:$G,Corpus!$J:$J</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="468">
   <si>
     <t>Translator</t>
   </si>
@@ -1085,6 +1084,384 @@
   </si>
   <si>
     <t>Compilation with added Latin glosses? (Myst4)</t>
+  </si>
+  <si>
+    <t>atqui</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>autem</t>
+  </si>
+  <si>
+    <t>certe</t>
+  </si>
+  <si>
+    <t>ceu</t>
+  </si>
+  <si>
+    <t>confestim</t>
+  </si>
+  <si>
+    <t>cum</t>
+  </si>
+  <si>
+    <t>dehinc</t>
+  </si>
+  <si>
+    <t>deinceps</t>
+  </si>
+  <si>
+    <t>demum</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>sic</t>
+  </si>
+  <si>
+    <t>sicut</t>
+  </si>
+  <si>
+    <t>siquidem</t>
+  </si>
+  <si>
+    <t>tamquam</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>utique</t>
+  </si>
+  <si>
+    <t>uelut</t>
+  </si>
+  <si>
+    <t>ueluti</t>
+  </si>
+  <si>
+    <t>uero</t>
+  </si>
+  <si>
+    <t>uidelicet</t>
+  </si>
+  <si>
+    <t>1211 rows × 54 columns</t>
+  </si>
+  <si>
+    <t>Chunk</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Bur</t>
+  </si>
+  <si>
+    <t>duplici autem virtute existente hac quidem int...</t>
+  </si>
+  <si>
+    <t>EthV</t>
+  </si>
+  <si>
+    <t>malicia autem contrarium fiet autem nobis et e...</t>
+  </si>
+  <si>
+    <t>bene habentibus operis quoniam neque auferendu...</t>
+  </si>
+  <si>
+    <t>et medietas amicicia qui superhabundat autem q...</t>
+  </si>
+  <si>
+    <t>iacit volens in salute autem sui ipsius et rel...</t>
+  </si>
+  <si>
+    <t>Anon</t>
+  </si>
+  <si>
+    <t>palam nec enim impar infinitus est nec par gen...</t>
+  </si>
+  <si>
+    <t>Metaph</t>
+  </si>
+  <si>
+    <t>aut non quare eadem accident et sic aut enim n...</t>
+  </si>
+  <si>
+    <t>quidem potentia illud vero actu ergo potentia ...</t>
+  </si>
+  <si>
+    <t>tempori non finis est non etiam erit sempitern...</t>
+  </si>
+  <si>
+    <t>erunt dignitates vera autem sunt dicta animamq...</t>
+  </si>
+  <si>
+    <t>1211 rows × 57 columns</t>
+  </si>
+  <si>
+    <t>INFO:root:'BurEthV.txt' was processed and split into 9 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BarPri.txt' was processed and split into 2 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilHis.txt' was processed and split into 39 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilElem.txt' was processed and split into 25 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'JamAnim.txt' was processed and split into 19 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BurGen.txt' was processed and split into 15 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilAlex.txt' was processed and split into 72 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilRhet.txt' was processed and split into 15 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilGenA.txt' was processed and split into 44 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'Myst3.txt' was processed and split into 10 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BarMor.txt' was processed and split into 20 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'AristPha.txt' was processed and split into 20 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BurCom.txt' was processed and split into 24 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'AnonPhys.txt' was processed and split into 5 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BurInt.txt' was processed and split into 64 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'AristMet.txt' was processed and split into 6 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BarSig.txt' was processed and split into 3 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilTet.txt' was processed and split into 33 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilMet.txt' was processed and split into 30 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'Myst6.txt' was processed and split into 9 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'JamPhys.txt' was processed and split into 53 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilInPar.txt' was processed and split into 161 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BurIon.txt' was processed and split into 133 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BarRhet.txt' was processed and split into 14 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'AristMen.txt' was processed and split into 9 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BurFid.txt' was processed and split into 53 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BarMirab.txt' was processed and split into 7 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'JamMetaph.txt' was processed and split into 15 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilCael.txt' was processed and split into 26 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'WilInTim.txt' was processed and split into 4 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'BurEthN.txt' was processed and split into 4 samples</t>
+  </si>
+  <si>
+    <t>INFO:root:'AnonMetaph.txt' was processed and split into 61 samples</t>
+  </si>
+  <si>
+    <t>[['atqui', 'atqvi'], ['aut', 'avt'], ['autem', 'avtem']]</t>
+  </si>
+  <si>
+    <t>array(['EthV', 'Pri', 'His', 'Elem', 'Anim', 'Gen', 'Simp', 'Pro', 'Alex',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'Rhet', 'GenA', '3', 'Mor', 'Pha', 'Com', 'Phys', 'Int', 'Met',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'Sig', 'Tet', '6', 'Mun', 'Pue', 'Mat', 'InPar', 'Ion', 'Men',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'Fid', 'Mirab', 'Metaph', 'Cael', 'InTim', 'EthN'], dtype=object)</t>
+  </si>
+  <si>
+    <t>Mor      20</t>
+  </si>
+  <si>
+    <t>Rhet     14</t>
+  </si>
+  <si>
+    <t>Pro      10</t>
+  </si>
+  <si>
+    <t>Mirab     7</t>
+  </si>
+  <si>
+    <t>Pue       6</t>
+  </si>
+  <si>
+    <t>Mun       5</t>
+  </si>
+  <si>
+    <t>Sig       3</t>
+  </si>
+  <si>
+    <t>Pri       2</t>
+  </si>
+  <si>
+    <t>Name: count, dtype: int64</t>
+  </si>
+  <si>
+    <t>['AnonMetaph',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AnonPhys',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AristMen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AristMet',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AristPha',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BarMirab',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BarMor',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BarMun',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BarPri',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BarPro',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BarPue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BarRhet',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BarSig',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BurCom',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BurEthN',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BurEthV',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BurFid',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BurGen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BurInt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BurIon',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BurMat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'JamAnim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'JamMetaph',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'JamPhys',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Myst3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Myst6',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilAlex',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilCael',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilElem',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilGenA',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilHis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilInPar',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilInTim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilMet',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilRhet',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilSimp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WilTet'</t>
+  </si>
+  <si>
+    <t>BarRhet</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>AnonMetaph',</t>
   </si>
 </sst>
 </file>
@@ -1151,14 +1528,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,7 +1552,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1471,1169 +1849,3169 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2AF561-8341-43B4-8707-CDCD3977BE33}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:AO118"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T1" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>134</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>61295</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>134</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5850</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4">
+        <v>9469</v>
+      </c>
+      <c r="K4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
         <v>134</v>
       </c>
-      <c r="I4">
-        <v>15961</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="J5">
+        <v>6812</v>
+      </c>
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6">
+        <v>20941</v>
+      </c>
+      <c r="K6" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
         <v>134</v>
       </c>
-      <c r="I5">
-        <v>53042</v>
-      </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="J7">
+        <v>7306</v>
+      </c>
+      <c r="K7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>20739</v>
+      </c>
+      <c r="K8" t="s">
+        <v>116</v>
+      </c>
+      <c r="T8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
         <v>134</v>
       </c>
-      <c r="I6">
-        <v>19834</v>
-      </c>
-      <c r="J6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="J9">
+        <v>5640</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>2914</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
         <v>134</v>
       </c>
-      <c r="I7">
-        <v>14993</v>
-      </c>
-      <c r="J7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="J12">
+        <v>6149</v>
+      </c>
+      <c r="T12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8">
-        <v>9697</v>
-      </c>
-      <c r="J8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9">
-        <v>5066</v>
-      </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>53755</v>
-      </c>
-      <c r="J10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>34572</v>
-      </c>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12">
-        <v>66626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13">
-        <v>133001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14">
-        <v>64149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>3386</v>
+      </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
+      <c r="T14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
         <v>12</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>38</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>134</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>24901</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
       <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
         <v>134</v>
       </c>
-      <c r="I16">
-        <v>591</v>
-      </c>
-      <c r="J16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>5066</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>442</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
         <v>12</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17">
+        <v>9697</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>53755</v>
+      </c>
+      <c r="K18" t="s">
+        <v>130</v>
+      </c>
+      <c r="T18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19">
+        <v>14993</v>
+      </c>
+      <c r="K19" t="s">
+        <v>108</v>
+      </c>
+      <c r="T19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20">
+        <v>64149</v>
+      </c>
+      <c r="T20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21">
+        <v>133001</v>
+      </c>
+      <c r="T21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
         <v>31</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I22" t="s">
         <v>134</v>
       </c>
-      <c r="I17">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="J22">
+        <v>66626</v>
+      </c>
+      <c r="T22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
         <v>12</v>
       </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
         <v>134</v>
       </c>
-      <c r="I18">
-        <v>6812</v>
-      </c>
-      <c r="J18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19">
+      <c r="J23">
+        <v>19834</v>
+      </c>
+      <c r="K23" t="s">
+        <v>107</v>
+      </c>
+      <c r="T23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
         <v>12</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
         <v>134</v>
       </c>
-      <c r="I19">
-        <v>9469</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
+      <c r="J24">
+        <v>15961</v>
+      </c>
+      <c r="K24" t="s">
+        <v>105</v>
+      </c>
+      <c r="T24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
         <v>12</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
         <v>134</v>
       </c>
-      <c r="I20">
-        <v>20941</v>
-      </c>
-      <c r="J20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="J25">
+        <v>53042</v>
+      </c>
+      <c r="K25" t="s">
+        <v>106</v>
+      </c>
+      <c r="T25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>451</v>
+      </c>
+      <c r="D26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>71996</v>
+      </c>
+      <c r="K28" t="s">
+        <v>124</v>
+      </c>
+      <c r="T28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>454</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>26961</v>
+      </c>
+      <c r="K29" t="s">
+        <v>119</v>
+      </c>
+      <c r="T29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
         <v>134</v>
       </c>
-      <c r="I21">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22">
-        <v>5640</v>
-      </c>
-      <c r="J22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23">
-        <v>7306</v>
-      </c>
-      <c r="J23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>2914</v>
-      </c>
-      <c r="J24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>3386</v>
-      </c>
-      <c r="J25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26">
-        <v>20739</v>
-      </c>
-      <c r="J26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27">
-        <v>6149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>30176</v>
-      </c>
-      <c r="J29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30">
-        <v>40000</v>
-      </c>
-      <c r="J30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>25782</v>
+      </c>
+      <c r="K30" t="s">
+        <v>126</v>
+      </c>
+      <c r="T30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
       <c r="B31" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>43</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>71</v>
       </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31">
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31">
         <v>44160</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
+        <v>457</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>43</v>
       </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
       <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>26961</v>
-      </c>
-      <c r="J32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>40000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>121</v>
+      </c>
+      <c r="T32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
+        <v>458</v>
+      </c>
+      <c r="C33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>71996</v>
-      </c>
-      <c r="J33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>161594</v>
+      </c>
+      <c r="K33" t="s">
+        <v>127</v>
+      </c>
+      <c r="T33" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>459</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>4775</v>
+      </c>
+      <c r="K34" t="s">
+        <v>125</v>
+      </c>
+      <c r="T34" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>30176</v>
+      </c>
+      <c r="K35" t="s">
+        <v>122</v>
+      </c>
+      <c r="T35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B36" t="s">
+        <v>461</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
+        <v>462</v>
+      </c>
+      <c r="C37" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D37" t="s">
         <v>76</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E37" t="s">
         <v>77</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34">
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37">
         <v>120399</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K37" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35">
-        <v>25782</v>
-      </c>
-      <c r="J35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>161594</v>
-      </c>
-      <c r="J36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37">
-        <v>4775</v>
-      </c>
-      <c r="J37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>84</v>
       </c>
       <c r="B38" t="s">
+        <v>463</v>
+      </c>
+      <c r="C38" t="s">
         <v>68</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>85</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>86</v>
       </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38">
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38">
         <v>33712</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>128</v>
       </c>
+      <c r="T38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T40" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T41" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T42" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T43" t="s">
+        <v>342</v>
+      </c>
+      <c r="U43" t="s">
+        <v>343</v>
+      </c>
+      <c r="V43" t="s">
+        <v>344</v>
+      </c>
+      <c r="W43" t="s">
+        <v>345</v>
+      </c>
+      <c r="X43" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>6.2337999999999998E-2</v>
+      </c>
+      <c r="W44">
+        <v>0.68571700000000002</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>2.0778999999999999E-2</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF44">
+        <v>0.20779300000000001</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0.20779300000000001</v>
+      </c>
+      <c r="AK44">
+        <v>4.1558999999999999E-2</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0.145455</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>4.9792999999999997E-2</v>
+      </c>
+      <c r="W45">
+        <v>0.81328500000000004</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF45">
+        <v>0.16597700000000001</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>1.6598000000000002E-2</v>
+      </c>
+      <c r="AK45">
+        <v>6.6391000000000006E-2</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>6.6391000000000006E-2</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0.89643300000000004</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>1.1493E-2</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF46">
+        <v>3.4478000000000002E-2</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>9.1941999999999996E-2</v>
+      </c>
+      <c r="AK46">
+        <v>1.1493E-2</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>4.5970999999999998E-2</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>6.4566999999999999E-2</v>
+      </c>
+      <c r="W47">
+        <v>0.77479799999999999</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF47">
+        <v>9.6850000000000006E-2</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>8.0708000000000002E-2</v>
+      </c>
+      <c r="AK47">
+        <v>6.4566999999999999E-2</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>3.2282999999999999E-2</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T48">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0.15085499999999999</v>
+      </c>
+      <c r="W48">
+        <v>0.82284500000000005</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>5.4856000000000002E-2</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF48">
+        <v>1.3714E-2</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>9.5999000000000001E-2</v>
+      </c>
+      <c r="AK48">
+        <v>0.123427</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T49" t="s">
+        <v>352</v>
+      </c>
+      <c r="U49" t="s">
+        <v>352</v>
+      </c>
+      <c r="V49" t="s">
+        <v>352</v>
+      </c>
+      <c r="W49" t="s">
+        <v>352</v>
+      </c>
+      <c r="X49" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T50">
+        <v>1206</v>
+      </c>
+      <c r="U50">
+        <v>2.5294000000000001E-2</v>
+      </c>
+      <c r="V50">
+        <v>0.32882400000000001</v>
+      </c>
+      <c r="W50">
+        <v>0.22764799999999999</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>7.5883000000000006E-2</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF50">
+        <v>0.126471</v>
+      </c>
+      <c r="AG50">
+        <v>7.5883000000000006E-2</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>7.5883000000000006E-2</v>
+      </c>
+      <c r="AJ50">
+        <v>0.43000100000000002</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0.45529500000000001</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T51">
+        <v>1207</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0.29814200000000002</v>
+      </c>
+      <c r="W51">
+        <v>0.238514</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>5.9628E-2</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF51">
+        <v>8.9442999999999995E-2</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0.26832800000000001</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0.56647099999999995</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T52">
+        <v>1208</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0.38014300000000001</v>
+      </c>
+      <c r="W52">
+        <v>0.25342900000000002</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>5.0686000000000002E-2</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF52">
+        <v>5.0686000000000002E-2</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>2.5343000000000001E-2</v>
+      </c>
+      <c r="AJ52">
+        <v>0.45617200000000002</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0.481514</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T53">
+        <v>1209</v>
+      </c>
+      <c r="U53">
+        <v>3.0331E-2</v>
+      </c>
+      <c r="V53">
+        <v>0.242647</v>
+      </c>
+      <c r="W53">
+        <v>0.242647</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>6.0662000000000001E-2</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF53">
+        <v>6.0662000000000001E-2</v>
+      </c>
+      <c r="AG53">
+        <v>6.0662000000000001E-2</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0.121324</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0.45496300000000001</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T54">
+        <v>1210</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0.27500999999999998</v>
+      </c>
+      <c r="W54">
+        <v>0.33612300000000001</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>3.0557000000000001E-2</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF54">
+        <v>6.1113000000000001E-2</v>
+      </c>
+      <c r="AG54">
+        <v>3.0557000000000001E-2</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>3.0557000000000001E-2</v>
+      </c>
+      <c r="AJ54">
+        <v>0.33612300000000001</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0.39723599999999998</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T57" t="s">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>364</v>
+      </c>
+      <c r="V57" t="s">
+        <v>365</v>
+      </c>
+      <c r="W57" t="s">
+        <v>342</v>
+      </c>
+      <c r="X57" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58" t="s">
+        <v>366</v>
+      </c>
+      <c r="V58" t="s">
+        <v>367</v>
+      </c>
+      <c r="W58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>6.2337999999999998E-2</v>
+      </c>
+      <c r="Z58">
+        <v>0.68571700000000002</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>2.0778999999999999E-2</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF58">
+        <v>0.20779300000000001</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0.20779300000000001</v>
+      </c>
+      <c r="AK58">
+        <v>4.1558999999999999E-2</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0.145455</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" t="s">
+        <v>366</v>
+      </c>
+      <c r="V59" t="s">
+        <v>369</v>
+      </c>
+      <c r="W59" t="s">
+        <v>368</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>4.9792999999999997E-2</v>
+      </c>
+      <c r="Z59">
+        <v>0.81328500000000004</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF59">
+        <v>0.16597700000000001</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>1.6598000000000002E-2</v>
+      </c>
+      <c r="AK59">
+        <v>6.6391000000000006E-2</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>6.6391000000000006E-2</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60" t="s">
+        <v>366</v>
+      </c>
+      <c r="V60" t="s">
+        <v>370</v>
+      </c>
+      <c r="W60" t="s">
+        <v>368</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0.89643300000000004</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>1.1493E-2</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF60">
+        <v>3.4478000000000002E-2</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>9.1941999999999996E-2</v>
+      </c>
+      <c r="AK60">
+        <v>1.1493E-2</v>
+      </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>4.5970999999999998E-2</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61" t="s">
+        <v>366</v>
+      </c>
+      <c r="V61" t="s">
+        <v>371</v>
+      </c>
+      <c r="W61" t="s">
+        <v>368</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>6.4566999999999999E-2</v>
+      </c>
+      <c r="Z61">
+        <v>0.77479799999999999</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF61">
+        <v>9.6850000000000006E-2</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>8.0708000000000002E-2</v>
+      </c>
+      <c r="AK61">
+        <v>6.4566999999999999E-2</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>3.2282999999999999E-2</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T62">
+        <v>4</v>
+      </c>
+      <c r="U62" t="s">
+        <v>366</v>
+      </c>
+      <c r="V62" t="s">
+        <v>372</v>
+      </c>
+      <c r="W62" t="s">
+        <v>368</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0.15085499999999999</v>
+      </c>
+      <c r="Z62">
+        <v>0.82284500000000005</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>5.4856000000000002E-2</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF62">
+        <v>1.3714E-2</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>9.5999000000000001E-2</v>
+      </c>
+      <c r="AK62">
+        <v>0.123427</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T63" t="s">
+        <v>352</v>
+      </c>
+      <c r="U63" t="s">
+        <v>352</v>
+      </c>
+      <c r="V63" t="s">
+        <v>352</v>
+      </c>
+      <c r="W63" t="s">
+        <v>352</v>
+      </c>
+      <c r="X63" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T64">
+        <v>1206</v>
+      </c>
+      <c r="U64" t="s">
+        <v>373</v>
+      </c>
+      <c r="V64" t="s">
+        <v>374</v>
+      </c>
+      <c r="W64" t="s">
+        <v>375</v>
+      </c>
+      <c r="X64">
+        <v>2.5294000000000001E-2</v>
+      </c>
+      <c r="Y64">
+        <v>0.32882400000000001</v>
+      </c>
+      <c r="Z64">
+        <v>0.22764799999999999</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF64">
+        <v>0.126471</v>
+      </c>
+      <c r="AG64">
+        <v>7.5883000000000006E-2</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>7.5883000000000006E-2</v>
+      </c>
+      <c r="AJ64">
+        <v>0.43000100000000002</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>0.45529500000000001</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T65">
+        <v>1207</v>
+      </c>
+      <c r="U65" t="s">
+        <v>373</v>
+      </c>
+      <c r="V65" t="s">
+        <v>376</v>
+      </c>
+      <c r="W65" t="s">
+        <v>375</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0.29814200000000002</v>
+      </c>
+      <c r="Z65">
+        <v>0.238514</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>5.9628E-2</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF65">
+        <v>8.9442999999999995E-2</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0.26832800000000001</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0.56647099999999995</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T66">
+        <v>1208</v>
+      </c>
+      <c r="U66" t="s">
+        <v>373</v>
+      </c>
+      <c r="V66" t="s">
+        <v>377</v>
+      </c>
+      <c r="W66" t="s">
+        <v>375</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0.38014300000000001</v>
+      </c>
+      <c r="Z66">
+        <v>0.25342900000000002</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>5.0686000000000002E-2</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF66">
+        <v>5.0686000000000002E-2</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>2.5343000000000001E-2</v>
+      </c>
+      <c r="AJ66">
+        <v>0.45617200000000002</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>0.481514</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T67">
+        <v>1209</v>
+      </c>
+      <c r="U67" t="s">
+        <v>373</v>
+      </c>
+      <c r="V67" t="s">
+        <v>378</v>
+      </c>
+      <c r="W67" t="s">
+        <v>375</v>
+      </c>
+      <c r="X67">
+        <v>3.0331E-2</v>
+      </c>
+      <c r="Y67">
+        <v>0.242647</v>
+      </c>
+      <c r="Z67">
+        <v>0.242647</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>6.0662000000000001E-2</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF67">
+        <v>6.0662000000000001E-2</v>
+      </c>
+      <c r="AG67">
+        <v>6.0662000000000001E-2</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0.121324</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0.45496300000000001</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T68">
+        <v>1210</v>
+      </c>
+      <c r="U68" t="s">
+        <v>373</v>
+      </c>
+      <c r="V68" t="s">
+        <v>379</v>
+      </c>
+      <c r="W68" t="s">
+        <v>375</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0.27500999999999998</v>
+      </c>
+      <c r="Z68">
+        <v>0.33612300000000001</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>3.0557000000000001E-2</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF68">
+        <v>6.1113000000000001E-2</v>
+      </c>
+      <c r="AG68">
+        <v>3.0557000000000001E-2</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>3.0557000000000001E-2</v>
+      </c>
+      <c r="AJ68">
+        <v>0.33612300000000001</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0.39723599999999998</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T69" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T72" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="73" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T73" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="74" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T74" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="75" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T76" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="77" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T77" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T78" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="79" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T79" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="80" spans="20:41" x14ac:dyDescent="0.2">
+      <c r="T80" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="81" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T81">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T84" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="85" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T85" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="86" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T86" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T87" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T88" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="89" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T89" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="90" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T90" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T91" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="92" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T92" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T93" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="94" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T94" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T95" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T96" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T97" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T98" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T99" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="100" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T100" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T101" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="102" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T102" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="103" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T103" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="104" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T104" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="105" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T105" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="106" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="107" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T107" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T108" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T109" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="110" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="111" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T111" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="112" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T112" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T113" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="114" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T114" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="115" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T115" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="116" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T116" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="117" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T117" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="118" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T118" t="s">
+        <v>463</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K38">
+    <sortCondition ref="A2:A38"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2648,9 +5026,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -2682,7 +5060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2714,7 +5092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2759,9 +5137,9 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -2793,7 +5171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2825,7 +5203,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2857,7 +5235,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2889,7 +5267,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -2915,7 +5293,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -2941,7 +5319,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>323</v>
       </c>
@@ -2976,7 +5354,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -3002,7 +5380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -3044,9 +5422,9 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -3078,7 +5456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3110,7 +5488,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3142,7 +5520,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +5552,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3206,7 +5584,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3238,7 +5616,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3267,7 +5645,7 @@
         <v>66626</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3296,7 +5674,7 @@
         <v>133001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3325,7 +5703,7 @@
         <v>64149</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3354,7 +5732,7 @@
         <v>24901</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -3386,7 +5764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3415,7 +5793,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -3432,7 +5810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -3449,7 +5827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -3466,7 +5844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -3483,7 +5861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -3503,7 +5881,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -3523,7 +5901,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -3540,7 +5918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3557,7 +5935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -3574,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3591,7 +5969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -3608,7 +5986,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -3631,7 +6009,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -3651,7 +6029,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -3671,7 +6049,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>324</v>
       </c>
@@ -3700,7 +6078,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -3720,7 +6098,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -3737,7 +6115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>19</v>
       </c>
@@ -3757,7 +6135,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>19</v>
       </c>
@@ -3777,7 +6155,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -3797,7 +6175,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -3817,7 +6195,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>19</v>
       </c>
@@ -3837,7 +6215,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -3857,7 +6235,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -3877,7 +6255,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>19</v>
       </c>
@@ -3900,7 +6278,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>19</v>
       </c>
@@ -3923,7 +6301,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -3966,9 +6344,9 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -4000,7 +6378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -4032,7 +6410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -4064,7 +6442,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -4096,7 +6474,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -4125,7 +6503,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -4145,7 +6523,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -4175,9 +6553,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -4209,7 +6591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -4241,7 +6623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -4273,7 +6655,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -4305,7 +6687,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -4337,7 +6719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4369,7 +6751,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4398,7 +6780,7 @@
         <v>6149</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -4427,7 +6809,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>328</v>
       </c>
@@ -4459,7 +6841,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>325</v>
       </c>
@@ -4491,7 +6873,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>331</v>
       </c>
@@ -4520,7 +6902,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>332</v>
       </c>
@@ -4552,7 +6934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>53</v>
       </c>
@@ -4569,7 +6951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -4589,7 +6971,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>53</v>
       </c>
@@ -4609,7 +6991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>53</v>
       </c>
@@ -4629,7 +7011,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>53</v>
       </c>
@@ -4649,7 +7031,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -4681,7 +7063,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -4713,7 +7095,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>334</v>
       </c>
@@ -4745,7 +7127,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>53</v>
       </c>
@@ -4774,13 +7156,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C462F8A3-F453-4033-AF40-9D404CD37554}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,7 +7199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -4844,7 +7231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -4876,7 +7263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -4908,7 +7295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -4940,7 +7327,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -4972,7 +7359,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -5004,7 +7391,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -5036,7 +7423,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -5071,7 +7458,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -5103,7 +7490,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -5135,7 +7522,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>68</v>
       </c>
@@ -5164,7 +7551,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -5193,7 +7580,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>68</v>
       </c>
@@ -5222,7 +7609,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>68</v>
       </c>
@@ -5251,7 +7638,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>68</v>
       </c>
@@ -5280,7 +7667,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>68</v>
       </c>
@@ -5309,7 +7696,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>68</v>
       </c>
@@ -5338,7 +7725,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>68</v>
       </c>
@@ -5367,7 +7754,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>68</v>
       </c>
@@ -5396,7 +7783,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -5422,7 +7809,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>68</v>
       </c>
@@ -5448,7 +7835,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>68</v>
       </c>
@@ -5474,7 +7861,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -5509,7 +7896,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>68</v>
       </c>
@@ -5538,7 +7925,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>68</v>
       </c>
@@ -5567,7 +7954,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>68</v>
       </c>
@@ -5593,7 +7980,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>322</v>
       </c>
@@ -5625,7 +8012,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>68</v>
       </c>
@@ -5651,7 +8038,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -5680,7 +8067,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>68</v>
       </c>
@@ -5709,7 +8096,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>327</v>
       </c>
@@ -5744,7 +8131,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>68</v>
       </c>
@@ -5761,7 +8148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>68</v>
       </c>
@@ -5787,7 +8174,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>68</v>
       </c>
@@ -5816,7 +8203,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>68</v>
       </c>
@@ -5842,7 +8229,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>68</v>
       </c>
@@ -5862,7 +8249,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>68</v>
       </c>
@@ -5888,7 +8275,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -5908,7 +8295,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>68</v>
       </c>
@@ -5937,7 +8324,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>68</v>
       </c>
@@ -5954,7 +8341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>68</v>
       </c>
@@ -5971,7 +8358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>68</v>
       </c>
@@ -5988,7 +8375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>68</v>
       </c>
@@ -6005,7 +8392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>68</v>
       </c>
@@ -6022,7 +8409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>68</v>
       </c>
@@ -6039,7 +8426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>68</v>
       </c>
@@ -6056,7 +8443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>68</v>
       </c>
@@ -6073,7 +8460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>68</v>
       </c>
@@ -6090,7 +8477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>68</v>
       </c>
@@ -6107,7 +8494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>68</v>
       </c>
@@ -6124,7 +8511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>68</v>
       </c>
@@ -6141,7 +8528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>320</v>
       </c>
@@ -6173,7 +8560,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>68</v>
       </c>
@@ -6190,7 +8577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>68</v>
       </c>
@@ -6210,7 +8597,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>68</v>
       </c>
@@ -6230,7 +8617,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>68</v>
       </c>
@@ -6259,7 +8646,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>68</v>
       </c>
@@ -6288,7 +8675,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>68</v>
       </c>
@@ -6308,7 +8695,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>68</v>
       </c>
@@ -6334,7 +8721,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>68</v>
       </c>
@@ -6372,7 +8759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6384,7 +8771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
